--- a/medicine/Sexualité et sexologie/Le_Feu_sous_la_peau_(film,_1985)/Le_Feu_sous_la_peau_(film,_1985).xlsx
+++ b/medicine/Sexualité et sexologie/Le_Feu_sous_la_peau_(film,_1985)/Le_Feu_sous_la_peau_(film,_1985).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Feu sous la peau est un film érotique français réalisé par Gérard Kikoïne, sorti en 1985.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune Américain passe l'été en France dans le manoir familial d'un de ses amis d'université. Une fois sur place, ce dernier séduit la mère et les deux sœurs.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Le Feu sous la peau
 Réalisation : Gérard Kikoïne
@@ -564,10 +580,10 @@
 Format : couleur — 35 mm
 Genre : érotique, drame
 Durée : 93 minutes
-Box-office  France : 24 462 entrées[1]
+Box-office  France : 24 462 entrées
 Date de sortie :
 France : 17 juillet 1985
-Classification CNC [2],[3] : interdit aux moins de 16 ans (visa d'exploitation no 52788 délivré le 8 mars 1985)</t>
+Classification CNC , : interdit aux moins de 16 ans (visa d'exploitation no 52788 délivré le 8 mars 1985)</t>
         </is>
       </c>
     </row>
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kevin Bernhardt : Raphael
 Eva Czemerys : Audrey
